--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A11F656-18FE-4FE8-9813-8C3701136004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405886A-5857-4DF1-9710-D07995827978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{B9AB8840-2EC9-4BF3-B89B-CCF5FEA3E037}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{729179B3-158E-40D3-9288-D188B725116B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C345D2-6438-4A4E-BECB-C89EA3B7C701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE40892-3312-4ED0-9C1E-35F1BEB01244}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405886A-5857-4DF1-9710-D07995827978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C9D66E-B28F-4238-B0C2-69634B7D2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{729179B3-158E-40D3-9288-D188B725116B}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{4EB5C85D-EF78-4653-AF40-C183207D26E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE40892-3312-4ED0-9C1E-35F1BEB01244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172D1995-C0A2-4B3E-A4D0-3C2E18AA0FB3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
